--- a/data-jada/maker2019.xlsx
+++ b/data-jada/maker2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyahi\git\nlp4j-data\data-jada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5E5EE5-3424-4D13-9EE7-6464E9494E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54B2BD5-A409-4A8A-A5A9-AE1D697E8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1575" yWindow="3045" windowWidth="19320" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ダイハツ</t>
   </si>
@@ -81,31 +81,6 @@
   <si>
     <t>month</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>source</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202012.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202011.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202010.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202009.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202008.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202007.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202006.xls</t>
   </si>
   <si>
     <t>合計</t>
@@ -113,21 +88,6 @@
       <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker201905.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker201904.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker201903.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker201902.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker201901.xls</t>
   </si>
 </sst>
 </file>
@@ -501,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -554,13 +514,10 @@
         <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -609,11 +566,8 @@
       <c r="P2">
         <v>249048</v>
       </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -662,11 +616,8 @@
       <c r="P3">
         <v>300410</v>
       </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -715,11 +666,8 @@
       <c r="P4">
         <v>417373</v>
       </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -768,11 +716,8 @@
       <c r="P5">
         <v>230954</v>
       </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -821,11 +766,8 @@
       <c r="P6">
         <v>247338</v>
       </c>
-      <c r="Q6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -874,11 +816,8 @@
       <c r="P7">
         <v>290225</v>
       </c>
-      <c r="Q7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -927,11 +866,8 @@
       <c r="P8">
         <v>300799</v>
       </c>
-      <c r="Q8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -980,11 +916,8 @@
       <c r="P9">
         <v>242718</v>
       </c>
-      <c r="Q9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -1033,11 +966,8 @@
       <c r="P10">
         <v>347706</v>
       </c>
-      <c r="Q10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -1086,11 +1016,8 @@
       <c r="P11">
         <v>192504</v>
       </c>
-      <c r="Q11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -1139,11 +1066,8 @@
       <c r="P12">
         <v>238844</v>
       </c>
-      <c r="Q12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -1192,17 +1116,14 @@
       <c r="P13">
         <v>226951</v>
       </c>
-      <c r="Q13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
